--- a/data/5_results/with_cot/result_with_cot_4.xlsx
+++ b/data/5_results/with_cot/result_with_cot_4.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="21" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="4" customWidth="1" min="9" max="9"/>
     <col width="4" customWidth="1" min="10" max="10"/>
@@ -505,23 +505,35 @@
           <t>upper wire size</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.5343511450381679</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5982905982905983</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5645161290322581</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.4794520547945205</v>
-      </c>
-      <c r="F2" t="n">
-        <v>85</v>
-      </c>
-      <c r="G2" t="n">
-        <v>58.21917808219178</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0,534</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0,598</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0,565</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0,479</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>85,000</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
       </c>
       <c r="H2" t="n">
         <v>70</v>
@@ -539,23 +551,35 @@
           <t>upper wire material</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.5328467153284672</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6083333333333333</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5680933852140078</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F3" t="n">
-        <v>82</v>
-      </c>
-      <c r="G3" t="n">
-        <v>56.16438356164384</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0,533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0,608</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0,568</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0,500</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>82,000</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
       </c>
       <c r="H3" t="n">
         <v>73</v>
@@ -573,23 +597,35 @@
           <t>lower wire size</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.5111111111111111</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5798319327731093</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5433070866141732</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.4726027397260274</v>
-      </c>
-      <c r="F4" t="n">
-        <v>80</v>
-      </c>
-      <c r="G4" t="n">
-        <v>54.7945205479452</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0,511</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0,580</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0,543</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0,473</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>80,000</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
       </c>
       <c r="H4" t="n">
         <v>69</v>
@@ -607,23 +643,35 @@
           <t>lower wire material</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.5035971223021583</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5405405405405405</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.4794520547945205</v>
-      </c>
-      <c r="F5" t="n">
-        <v>77</v>
-      </c>
-      <c r="G5" t="n">
-        <v>52.73972602739726</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0,504</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0,583</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0,541</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0,479</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>77,000</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0,53</t>
+        </is>
       </c>
       <c r="H5" t="n">
         <v>70</v>
@@ -641,23 +689,35 @@
           <t>changed upper arch wire</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.4631578947368421</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.4583333333333333</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.4607329842931937</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3013698630136986</v>
-      </c>
-      <c r="F6" t="n">
-        <v>95</v>
-      </c>
-      <c r="G6" t="n">
-        <v>65.06849315068493</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0,463</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0,458</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0,461</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0,301</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>95,000</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
       </c>
       <c r="H6" t="n">
         <v>44</v>
@@ -675,23 +735,35 @@
           <t>changed lower arch wire</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>0.4141414141414141</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4315789473684211</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.4226804123711341</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.2808219178082192</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>60.27397260273973</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0,414</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0,432</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0,423</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0,281</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>88,000</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0,60</t>
+        </is>
       </c>
       <c r="H7" t="n">
         <v>41</v>
@@ -709,23 +781,35 @@
           <t>ligature method</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>0.1711711711711712</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1775700934579439</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.1743119266055046</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.1301369863013699</v>
-      </c>
-      <c r="F8" t="n">
-        <v>54</v>
-      </c>
-      <c r="G8" t="n">
-        <v>36.98630136986301</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0,171</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0,178</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0,174</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0,130</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>54,000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
       </c>
       <c r="H8" t="n">
         <v>19</v>
@@ -743,23 +827,35 @@
           <t>oral hygiene</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>0.2279411764705882</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.264957264957265</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.2450592885375494</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.2123287671232877</v>
-      </c>
-      <c r="F9" t="n">
-        <v>41</v>
-      </c>
-      <c r="G9" t="n">
-        <v>28.08219178082192</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0,228</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0,265</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0,245</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0,212</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>41,000</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
       </c>
       <c r="H9" t="n">
         <v>31</v>
@@ -777,23 +873,35 @@
           <t>elastic pattern left</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>0.2340425531914894</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.264</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.2481203007518797</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.226027397260274</v>
-      </c>
-      <c r="F10" t="n">
-        <v>38</v>
-      </c>
-      <c r="G10" t="n">
-        <v>26.02739726027397</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0,234</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0,264</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0,248</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0,226</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>38,000</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
       </c>
       <c r="H10" t="n">
         <v>33</v>
@@ -811,23 +919,35 @@
           <t>right canine class</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>0.1627906976744186</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1615384615384615</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1621621621621622</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1438356164383562</v>
-      </c>
-      <c r="F11" t="n">
-        <v>38</v>
-      </c>
-      <c r="G11" t="n">
-        <v>26.02739726027397</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0,163</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0,162</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0,162</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0,144</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>38,000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
       </c>
       <c r="H11" t="n">
         <v>21</v>
@@ -845,23 +965,35 @@
           <t>left canine class</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>0.1603053435114504</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1615384615384615</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.1609195402298851</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.1438356164383562</v>
-      </c>
-      <c r="F12" t="n">
-        <v>36</v>
-      </c>
-      <c r="G12" t="n">
-        <v>24.65753424657534</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0,160</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0,162</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0,161</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0,144</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>36,000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
       </c>
       <c r="H12" t="n">
         <v>21</v>
@@ -879,23 +1011,35 @@
           <t>right molar class</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>0.1796875</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1755725190839695</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.1776061776061776</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.1575342465753425</v>
-      </c>
-      <c r="F13" t="n">
-        <v>41</v>
-      </c>
-      <c r="G13" t="n">
-        <v>28.08219178082192</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0,180</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0,176</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0,178</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0,158</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>41,000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
       </c>
       <c r="H13" t="n">
         <v>23</v>
@@ -913,23 +1057,35 @@
           <t>left molar class</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>0.183206106870229</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.182509505703422</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1643835616438356</v>
-      </c>
-      <c r="F14" t="n">
-        <v>39</v>
-      </c>
-      <c r="G14" t="n">
-        <v>26.71232876712329</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0,183</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0,182</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0,183</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0,164</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>39,000</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
       </c>
       <c r="H14" t="n">
         <v>24</v>
@@ -947,23 +1103,35 @@
           <t>class ii elastic</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>0.2302158273381295</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.2379182156133829</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.2191780821917808</v>
-      </c>
-      <c r="F15" t="n">
-        <v>39</v>
-      </c>
-      <c r="G15" t="n">
-        <v>26.71232876712329</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0,230</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0,246</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0,238</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>0,219</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>39,000</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
       </c>
       <c r="H15" t="n">
         <v>32</v>
@@ -981,23 +1149,35 @@
           <t>elastic pattern right</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>0.1764705882352941</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.1897233201581028</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.1643835616438356</v>
-      </c>
-      <c r="F16" t="n">
-        <v>34</v>
-      </c>
-      <c r="G16" t="n">
-        <v>23.28767123287671</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0,176</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0,205</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0,190</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0,164</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>34,000</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
       </c>
       <c r="H16" t="n">
         <v>24</v>
@@ -1015,23 +1195,35 @@
           <t>compliance</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>0.1691176470588235</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1949152542372881</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.1811023622047244</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.1575342465753425</v>
-      </c>
-      <c r="F17" t="n">
-        <v>33</v>
-      </c>
-      <c r="G17" t="n">
-        <v>22.60273972602739</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0,169</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0,195</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0,181</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>0,158</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>33,000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
       </c>
       <c r="H17" t="n">
         <v>23</v>
@@ -1049,23 +1241,35 @@
           <t>overjet (mm)</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>0.1029411764705882</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1052631578947368</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.104089219330855</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.0958904109589041</v>
-      </c>
-      <c r="F18" t="n">
-        <v>24</v>
-      </c>
-      <c r="G18" t="n">
-        <v>16.43835616438356</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0,103</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0,105</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0,104</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>0,096</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>24,000</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
       </c>
       <c r="H18" t="n">
         <v>14</v>
@@ -1083,23 +1287,35 @@
           <t>elastic type left</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>0.1294964028776978</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1343283582089552</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.1318681318681318</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1232876712328767</v>
-      </c>
-      <c r="F19" t="n">
-        <v>25</v>
-      </c>
-      <c r="G19" t="n">
-        <v>17.12328767123288</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0,129</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0,134</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0,132</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>0,123</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>25,000</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
       </c>
       <c r="H19" t="n">
         <v>18</v>
@@ -1117,23 +1333,35 @@
           <t>elastic type right</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>0.1285714285714286</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1343283582089552</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.1313868613138686</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.1232876712328767</v>
-      </c>
-      <c r="F20" t="n">
-        <v>24</v>
-      </c>
-      <c r="G20" t="n">
-        <v>16.43835616438356</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0,129</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0,134</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0,131</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0,123</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>24,000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
       </c>
       <c r="H20" t="n">
         <v>18</v>
@@ -1151,23 +1379,35 @@
           <t>overbite (mm)</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>0.08088235294117647</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.08088235294117647</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.08088235294117647</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.07534246575342465</v>
-      </c>
-      <c r="F21" t="n">
-        <v>21</v>
-      </c>
-      <c r="G21" t="n">
-        <v>14.38356164383562</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0,081</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>0,081</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0,081</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>0,075</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>21,000</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
       </c>
       <c r="H21" t="n">
         <v>11</v>
@@ -1185,23 +1425,35 @@
           <t>debonded bracket</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>0.04411764705882353</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.04137931034482759</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.04270462633451957</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="F22" t="n">
-        <v>16</v>
-      </c>
-      <c r="G22" t="n">
-        <v>10.95890410958904</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0,044</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0,041</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0,043</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0,041</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>16,000</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
       </c>
       <c r="H22" t="n">
         <v>6</v>
@@ -1219,23 +1471,35 @@
           <t>lower retainer</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>0.0583941605839416</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.05970149253731343</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.05904059040590406</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.0547945205479452</v>
-      </c>
-      <c r="F23" t="n">
-        <v>17</v>
-      </c>
-      <c r="G23" t="n">
-        <v>11.64383561643836</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0,058</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0,060</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0,059</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>0,055</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>17,000</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
       </c>
       <c r="H23" t="n">
         <v>8</v>
@@ -1253,23 +1517,35 @@
           <t>emergency type</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0.04347826086956522</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.04137931034482759</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.04240282685512368</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="F24" t="n">
-        <v>14</v>
-      </c>
-      <c r="G24" t="n">
-        <v>9.58904109589041</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0,043</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0,041</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0,042</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0,041</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>14,000</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0,10</t>
+        </is>
       </c>
       <c r="H24" t="n">
         <v>6</v>
@@ -1287,23 +1563,35 @@
           <t>upper retainer</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0.07194244604316546</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.07352941176470588</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.07272727272727272</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.0684931506849315</v>
-      </c>
-      <c r="F25" t="n">
-        <v>17</v>
-      </c>
-      <c r="G25" t="n">
-        <v>11.64383561643836</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0,072</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0,074</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0,073</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0,068</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>17,000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
       </c>
       <c r="H25" t="n">
         <v>10</v>
@@ -1321,23 +1609,35 @@
           <t>space closure sliding mechanics</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.0291970802919708</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.02888086642599278</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.0273972602739726</v>
-      </c>
-      <c r="F26" t="n">
-        <v>13</v>
-      </c>
-      <c r="G26" t="n">
-        <v>8.904109589041095</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0,029</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0,029</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0,029</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0,027</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>13,000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
       </c>
       <c r="H26" t="n">
         <v>4</v>
@@ -1355,23 +1655,35 @@
           <t>photos taken</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>0.08088235294117647</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.07971014492753623</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.08029197080291969</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.07534246575342465</v>
-      </c>
-      <c r="F27" t="n">
-        <v>21</v>
-      </c>
-      <c r="G27" t="n">
-        <v>14.38356164383562</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0,081</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0,080</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0,080</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>0,075</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>21,000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
       </c>
       <c r="H27" t="n">
         <v>11</v>
@@ -1389,23 +1701,35 @@
           <t>upper arch bends</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>0.07801418439716312</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.09166666666666666</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.08429118773946359</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.07534246575342465</v>
-      </c>
-      <c r="F28" t="n">
-        <v>16</v>
-      </c>
-      <c r="G28" t="n">
-        <v>10.95890410958904</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0,078</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0,092</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0,084</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>0,075</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>16,000</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
       </c>
       <c r="H28" t="n">
         <v>11</v>
@@ -1423,23 +1747,35 @@
           <t>class i elastic</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>0.02142857142857143</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.02290076335877863</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.02214022140221402</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="F29" t="n">
-        <v>9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>6.164383561643835</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>0,023</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0,022</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
       </c>
       <c r="H29" t="n">
         <v>3</v>
@@ -1457,23 +1793,35 @@
           <t>class iii elastic</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>0.03597122302158273</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.03571428571428571</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.03584229390681003</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.03424657534246575</v>
-      </c>
-      <c r="F30" t="n">
-        <v>12</v>
-      </c>
-      <c r="G30" t="n">
-        <v>8.21917808219178</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0,036</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0,036</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0,036</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0,034</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>12,000</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
       </c>
       <c r="H30" t="n">
         <v>5</v>
@@ -1491,23 +1839,35 @@
           <t>appliance</t>
         </is>
       </c>
-      <c r="B31" t="n">
-        <v>0.02158273381294964</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.02255639097744361</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.02205882352941176</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="F31" t="n">
-        <v>10</v>
-      </c>
-      <c r="G31" t="n">
-        <v>6.849315068493151</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0,022</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0,023</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0,022</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
       </c>
       <c r="H31" t="n">
         <v>3</v>
@@ -1525,23 +1885,35 @@
           <t>lower arch bends</t>
         </is>
       </c>
-      <c r="B32" t="n">
-        <v>0.0425531914893617</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.04878048780487805</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.04545454545454546</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.0410958904109589</v>
-      </c>
-      <c r="F32" t="n">
-        <v>11</v>
-      </c>
-      <c r="G32" t="n">
-        <v>7.534246575342466</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0,043</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0,049</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0,045</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>0,041</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>11,000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
       </c>
       <c r="H32" t="n">
         <v>6</v>
@@ -1559,23 +1931,35 @@
           <t>retainer check</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.06338028169014084</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.06293706293706294</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.06164383561643835</v>
-      </c>
-      <c r="F33" t="n">
-        <v>11</v>
-      </c>
-      <c r="G33" t="n">
-        <v>7.534246575342466</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0,062</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>0,063</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0,063</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>0,062</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>11,000</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
       </c>
       <c r="H33" t="n">
         <v>9</v>
@@ -1593,23 +1977,35 @@
           <t>xrays taken</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>0.03597122302158273</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.0352112676056338</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.03558718861209964</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.03424657534246575</v>
-      </c>
-      <c r="F34" t="n">
-        <v>12</v>
-      </c>
-      <c r="G34" t="n">
-        <v>8.21917808219178</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0,036</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0,036</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>0,034</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>12,000</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
       </c>
       <c r="H34" t="n">
         <v>5</v>
@@ -1627,23 +2023,35 @@
           <t>intra oral scanning taken</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>0.03546099290780142</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.0364963503649635</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.03597122302158273</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.03424657534246575</v>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
-      </c>
-      <c r="G35" t="n">
-        <v>6.849315068493151</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0,036</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0,036</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>0,034</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10,000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
       </c>
       <c r="H35" t="n">
         <v>5</v>
@@ -1661,23 +2069,35 @@
           <t>emergency</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>0.02112676056338028</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.02068965517241379</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.02090592334494774</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
-      </c>
-      <c r="G36" t="n">
-        <v>4.794520547945205</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7,000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H36" t="n">
         <v>3</v>
@@ -1695,23 +2115,35 @@
           <t>lower arch reverse curve of spee</t>
         </is>
       </c>
-      <c r="B37" t="n">
-        <v>0.01438848920863309</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.01438848920863309</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.01438848920863309</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
-      </c>
-      <c r="G37" t="n">
-        <v>6.164383561643835</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
       </c>
       <c r="H37" t="n">
         <v>2</v>
@@ -1729,23 +2161,35 @@
           <t>bracket or band repositioning</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>0.02112676056338028</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.02158273381294964</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.02135231316725978</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="F38" t="n">
-        <v>7</v>
-      </c>
-      <c r="G38" t="n">
-        <v>4.794520547945205</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0,022</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7,000</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H38" t="n">
         <v>3</v>
@@ -1763,23 +2207,35 @@
           <t>open spring</t>
         </is>
       </c>
-      <c r="B39" t="n">
-        <v>0.02816901408450704</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.02777777777777778</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.02797202797202797</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.0273972602739726</v>
-      </c>
-      <c r="F39" t="n">
-        <v>8</v>
-      </c>
-      <c r="G39" t="n">
-        <v>5.47945205479452</v>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>0,028</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0,028</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0,028</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>0,027</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8,000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H39" t="n">
         <v>4</v>
@@ -1797,23 +2253,35 @@
           <t>upper bonding</t>
         </is>
       </c>
-      <c r="B40" t="n">
-        <v>0.02068965517241379</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.02083333333333333</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.02076124567474049</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.02054794520547945</v>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
-      </c>
-      <c r="G40" t="n">
-        <v>2.73972602739726</v>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0,021</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
       </c>
       <c r="H40" t="n">
         <v>3</v>
@@ -1831,23 +2299,35 @@
           <t>ipr</t>
         </is>
       </c>
-      <c r="B41" t="n">
-        <v>0.03472222222222222</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.03496503496503497</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.0348432055749129</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.03424657534246575</v>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
-      </c>
-      <c r="G41" t="n">
-        <v>4.794520547945205</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0,034</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7,000</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H41" t="n">
         <v>5</v>
@@ -1865,23 +2345,35 @@
           <t>re-tie appointment</t>
         </is>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4</v>
-      </c>
-      <c r="G42" t="n">
-        <v>2.73972602739726</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1899,23 +2391,35 @@
           <t>lower bonding</t>
         </is>
       </c>
-      <c r="B43" t="n">
-        <v>0.01379310344827586</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.01388888888888889</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.01384083044982699</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2.054794520547945</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -1933,23 +2437,35 @@
           <t>posterior bite turbos</t>
         </is>
       </c>
-      <c r="B44" t="n">
-        <v>0.01408450704225352</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.01388888888888889</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.01398601398601399</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="F44" t="n">
-        <v>6</v>
-      </c>
-      <c r="G44" t="n">
-        <v>4.10958904109589</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6,000</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
       </c>
       <c r="H44" t="n">
         <v>2</v>
@@ -1967,23 +2483,35 @@
           <t>cross elastic</t>
         </is>
       </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>5</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3.424657534246575</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2001,23 +2529,35 @@
           <t>upper arch accentuated curve of spee</t>
         </is>
       </c>
-      <c r="B46" t="n">
-        <v>0.01388888888888889</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.01408450704225352</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.01398601398601399</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="F46" t="n">
-        <v>4</v>
-      </c>
-      <c r="G46" t="n">
-        <v>2.73972602739726</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4,000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
       </c>
       <c r="H46" t="n">
         <v>2</v>
@@ -2035,23 +2575,35 @@
           <t>upper debond</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>0.0352112676056338</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.03496503496503497</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.03508771929824562</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.03424657534246575</v>
-      </c>
-      <c r="F47" t="n">
-        <v>9</v>
-      </c>
-      <c r="G47" t="n">
-        <v>6.164383561643835</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>0,034</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9,000</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
       </c>
       <c r="H47" t="n">
         <v>5</v>
@@ -2069,23 +2621,35 @@
           <t>lower debond</t>
         </is>
       </c>
-      <c r="B48" t="n">
-        <v>0.03496503496503497</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.03496503496503497</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.03496503496503497</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.03424657534246575</v>
-      </c>
-      <c r="F48" t="n">
-        <v>8</v>
-      </c>
-      <c r="G48" t="n">
-        <v>5.47945205479452</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0,035</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>0,034</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8,000</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0,05</t>
+        </is>
       </c>
       <c r="H48" t="n">
         <v>5</v>
@@ -2103,23 +2667,35 @@
           <t>tads</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>0.006896551724137931</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.006944444444444444</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.006920415224913494</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="n">
-        <v>1.36986301369863</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
       </c>
       <c r="H49" t="n">
         <v>1</v>
@@ -2137,23 +2713,35 @@
           <t>prescription and bracket slot</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>0.01379310344827586</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.01374570446735395</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.0136986301369863</v>
-      </c>
-      <c r="F50" t="n">
-        <v>3</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2.054794520547945</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>0,014</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H50" t="n">
         <v>2</v>
@@ -2171,23 +2759,35 @@
           <t>tmj symptoms</t>
         </is>
       </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.424657534246575</v>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2205,23 +2805,35 @@
           <t>enameloplasty</t>
         </is>
       </c>
-      <c r="B52" t="n">
-        <v>0</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.684931506849315</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2239,23 +2851,35 @@
           <t>referral</t>
         </is>
       </c>
-      <c r="B53" t="n">
-        <v>0.007042253521126761</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.006993006993006993</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.007017543859649123</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="F53" t="n">
-        <v>5</v>
-      </c>
-      <c r="G53" t="n">
-        <v>3.424657534246575</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
       </c>
       <c r="H53" t="n">
         <v>1</v>
@@ -2273,23 +2897,35 @@
           <t>unilateral posterior crossbite</t>
         </is>
       </c>
-      <c r="B54" t="n">
-        <v>0</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>5</v>
-      </c>
-      <c r="G54" t="n">
-        <v>3.424657534246575</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5,000</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2307,23 +2943,35 @@
           <t>extractions</t>
         </is>
       </c>
-      <c r="B55" t="n">
-        <v>0.006944444444444444</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.007142857142857143</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.007042253521126761</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3</v>
-      </c>
-      <c r="G55" t="n">
-        <v>2.054794520547945</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H55" t="n">
         <v>1</v>
@@ -2341,23 +2989,35 @@
           <t>tpa</t>
         </is>
       </c>
-      <c r="B56" t="n">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="F56" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0.684931506849315</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2372,366 +3032,516 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>upper banding</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
+          <t>Space closure loop mechanics</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>relapse</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" t="n">
-        <v>1.36986301369863</v>
+          <t>upper banding</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
+        <v>3</v>
+      </c>
+      <c r="J58" t="n">
         <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>upper active movement</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3</v>
-      </c>
-      <c r="G59" t="n">
-        <v>2.054794520547945</v>
+          <t>relapse</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>lower active movement</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2</v>
-      </c>
-      <c r="G60" t="n">
-        <v>1.36986301369863</v>
+          <t>upper active movement</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>closed spring</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2.054794520547945</v>
+          <t>lower active movement</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>lower banding</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" t="n">
-        <v>0</v>
+          <t>closed spring</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>niti closing spring</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2.054794520547945</v>
+          <t>lower banding</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
+        <v>2</v>
+      </c>
+      <c r="J63" t="n">
         <v>0</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>tads.1</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2</v>
-      </c>
-      <c r="G64" t="n">
-        <v>1.36986301369863</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2</v>
+          <t>Patient ID.1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>upper arch reverse curve of spee</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
+          <t>niti closing spring</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3,000</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
       </c>
       <c r="H65" t="n">
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>maxillary expander</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.006896551724137931</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.006872852233676976</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.00684931506849315</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1.36986301369863</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1</v>
+          <t>Anterior Bite Turbos</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>debonded bracket/band</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.684931506849315</v>
+          <t>tads.1</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2740,108 +3550,698 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>lower arch curve of spee</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0.684931506849315</v>
+          <t>upper arch reverse curve of spee</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
         <v>0</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>lower arch accentuated curve of spee</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2</v>
-      </c>
-      <c r="G69" t="n">
-        <v>1.36986301369863</v>
+          <t>maxillary expander</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0,007</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>LLHA</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Anterior Crossbite</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>debonded bracket/band</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>lower arch curve of spee</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Intrusion Arch</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Bilateral Posterior Crossbite</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>lower arch accentuated curve of spee</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Active Traction</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Active Tooth Traction</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Mandibular Advancement Appliance</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Teeth Pain</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>arch coordination</t>
         </is>
       </c>
-      <c r="B70" t="n">
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>0,000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,000</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="C70" t="n">
+      <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="D70" t="n">
-        <v>0</v>
-      </c>
-      <c r="E70" t="n">
-        <v>0</v>
-      </c>
-      <c r="F70" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" t="n">
-        <v>0.684931506849315</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
+      <c r="J81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2856,7 +4256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2864,78 +4264,65 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="21" customWidth="1" min="2" max="2"/>
-    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Metric</t>
+          <t>Mode</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Simple Average</t>
+          <t>F1</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Weighted Average</t>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>W F1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W SEM</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Precision</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0.09069749806671798</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2637315121032276</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Recall</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0.0975243555673555</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2867168835232863</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>F1 Score</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.09388981891666556</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2744901167817668</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Semantic Similarity</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.08080206472106412</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2272447049726759</v>
+          <t>with_cot</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0,094</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0,081</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0,274</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0,227</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3012,7 +4399,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">

--- a/data/5_results/with_cot/result_with_cot_4.xlsx
+++ b/data/5_results/with_cot/result_with_cot_4.xlsx
@@ -507,22 +507,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,534</t>
+          <t>0,707</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,598</t>
+          <t>0,824</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,565</t>
+          <t>0,761</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,479</t>
+          <t>0,997</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -553,22 +553,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,533</t>
+          <t>0,737</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,608</t>
+          <t>0,890</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,568</t>
+          <t>0,807</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,985</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -599,22 +599,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,511</t>
+          <t>0,719</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,580</t>
+          <t>0,863</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,543</t>
+          <t>0,784</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,473</t>
+          <t>0,997</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -645,22 +645,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,504</t>
+          <t>0,729</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,909</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,541</t>
+          <t>0,809</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,479</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -691,22 +691,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>0,468</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>0,463</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0,458</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,461</t>
+          <t>0,466</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,301</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -737,22 +737,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,414</t>
+          <t>0,446</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,432</t>
+          <t>0,466</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,423</t>
+          <t>0,456</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0,281</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -783,22 +783,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,171</t>
+          <t>0,328</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,178</t>
+          <t>0,352</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,174</t>
+          <t>0,339</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,130</t>
+          <t>0,966</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -829,22 +829,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,228</t>
+          <t>0,517</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,265</t>
+          <t>0,756</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,245</t>
+          <t>0,614</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0,212</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -875,22 +875,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,234</t>
+          <t>0,611</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,264</t>
+          <t>0,868</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,248</t>
+          <t>0,717</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,226</t>
+          <t>0,974</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -921,22 +921,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,163</t>
+          <t>0,568</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,162</t>
+          <t>0,553</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,162</t>
+          <t>0,560</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,144</t>
+          <t>0,977</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -967,22 +967,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,160</t>
+          <t>0,568</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,162</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,161</t>
+          <t>0,575</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,144</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1013,22 +1013,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,180</t>
+          <t>0,605</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,176</t>
+          <t>0,561</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,178</t>
+          <t>0,582</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,158</t>
+          <t>0,978</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1059,22 +1059,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,183</t>
+          <t>0,632</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,182</t>
+          <t>0,615</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,183</t>
+          <t>0,623</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,164</t>
+          <t>0,950</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1105,22 +1105,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,230</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,246</t>
+          <t>0,821</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,238</t>
+          <t>0,736</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0,219</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1151,22 +1151,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,176</t>
+          <t>0,453</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,205</t>
+          <t>0,706</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,190</t>
+          <t>0,552</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,164</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1197,22 +1197,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,169</t>
+          <t>0,451</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,195</t>
+          <t>0,697</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,181</t>
+          <t>0,548</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,158</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1243,22 +1243,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,103</t>
+          <t>0,519</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,105</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,104</t>
+          <t>0,549</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,096</t>
+          <t>0,959</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1289,22 +1289,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,134</t>
+          <t>0,720</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,132</t>
+          <t>0,655</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,123</t>
+          <t>0,850</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,134</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,131</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,123</t>
+          <t>0,819</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1381,22 +1381,22 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,081</t>
+          <t>0,524</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,081</t>
+          <t>0,524</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,081</t>
+          <t>0,524</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,075</t>
+          <t>0,845</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1427,22 +1427,22 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,044</t>
+          <t>0,857</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,041</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,522</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0,041</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1473,22 +1473,22 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,058</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,060</t>
+          <t>0,471</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,059</t>
+          <t>0,432</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,055</t>
+          <t>0,898</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1519,22 +1519,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,857</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,041</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,042</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,041</t>
+          <t>0,940</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1565,22 +1565,22 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,072</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,074</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,073</t>
+          <t>0,541</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,068</t>
+          <t>0,892</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1611,22 +1611,22 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,308</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,029</t>
+          <t>0,348</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0,027</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1657,22 +1657,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,081</t>
+          <t>0,579</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,080</t>
+          <t>0,524</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,080</t>
+          <t>0,550</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0,075</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1703,22 +1703,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,078</t>
+          <t>0,297</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,092</t>
+          <t>0,688</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,084</t>
+          <t>0,415</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0,075</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1749,22 +1749,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,022</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1795,22 +1795,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,435</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1841,22 +1841,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,022</t>
+          <t>0,188</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0,023</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0,022</t>
+          <t>0,231</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,935</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1887,22 +1887,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,043</t>
+          <t>0,207</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,049</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,045</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0,041</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1933,22 +1933,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0,062</t>
+          <t>0,692</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,063</t>
+          <t>0,818</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,063</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0,062</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1979,22 +1979,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,476</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2025,22 +2025,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,357</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,036</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2071,22 +2071,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2117,22 +2117,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2163,22 +2163,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,300</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,022</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,353</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -2209,22 +2209,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,028</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,028</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,028</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>0,027</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2255,22 +2255,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,750</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0,021</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -2301,22 +2301,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2393,22 +2393,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2439,22 +2439,22 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,897</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2500,7 +2500,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2531,22 +2531,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2577,22 +2577,22 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2623,22 +2623,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,035</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0,034</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2669,22 +2669,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2715,22 +2715,22 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,014</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2853,22 +2853,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,914</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2945,22 +2945,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2991,22 +2991,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,463</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -3242,7 +3242,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,643</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -3607,22 +3607,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0,007</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -4306,22 +4306,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,094</t>
+          <t>0,398</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,081</t>
+          <t>0,739</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,274</t>
+          <t>0,575</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,227</t>
+          <t>0,952</t>
         </is>
       </c>
     </row>

--- a/data/5_results/with_cot/result_with_cot_4.xlsx
+++ b/data/5_results/with_cot/result_with_cot_4.xlsx
@@ -440,9 +440,9 @@
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="9" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="4" customWidth="1" min="9" max="9"/>
     <col width="4" customWidth="1" min="10" max="10"/>
   </cols>
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,707</t>
+          <t>0,728</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,824</t>
+          <t>0,856</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,761</t>
+          <t>0,787</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,997</t>
+          <t>0,995</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>85,000</t>
+          <t>125,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="I2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3">
@@ -553,27 +553,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,737</t>
+          <t>0,796</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,890</t>
+          <t>0,951</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,807</t>
+          <t>0,867</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,985</t>
+          <t>0,991</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>82,000</t>
+          <t>123,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -582,13 +582,13 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="I3" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,719</t>
+          <t>0,745</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,863</t>
+          <t>0,885</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,784</t>
+          <t>0,809</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,997</t>
+          <t>0,996</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>80,000</t>
+          <t>122,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="I4" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="J4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -645,42 +645,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,729</t>
+          <t>0,759</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,909</t>
+          <t>0,917</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,809</t>
+          <t>0,830</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,974</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>77,000</t>
+          <t>120,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="I5" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -691,27 +691,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,468</t>
+          <t>0,461</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,463</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,466</t>
+          <t>0,458</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,995</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>95,000</t>
+          <t>143,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="J6" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,446</t>
+          <t>0,464</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,466</t>
+          <t>0,464</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,456</t>
+          <t>0,464</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>88,000</t>
+          <t>140,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,60</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="I7" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="J7" t="n">
-        <v>47</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -783,42 +783,42 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,328</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,352</t>
+          <t>0,212</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,339</t>
+          <t>0,206</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,966</t>
+          <t>0,982</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>54,000</t>
+          <t>66,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I8" t="n">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J8" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
@@ -829,17 +829,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,517</t>
+          <t>0,485</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,756</t>
+          <t>0,676</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,614</t>
+          <t>0,565</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -849,22 +849,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>41,000</t>
+          <t>71,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="J9" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10">
@@ -875,42 +875,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,611</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,868</t>
+          <t>0,758</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,717</t>
+          <t>0,641</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,974</t>
+          <t>0,991</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>38,000</t>
+          <t>66,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="I10" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -921,42 +921,42 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,568</t>
+          <t>0,559</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,553</t>
+          <t>0,508</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,560</t>
+          <t>0,532</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,977</t>
+          <t>0,997</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>38,000</t>
+          <t>65,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I11" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -967,42 +967,42 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,568</t>
+          <t>0,525</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,492</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,575</t>
+          <t>0,508</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,957</t>
+          <t>0,965</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>36,000</t>
+          <t>63,000</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I12" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1013,42 +1013,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,605</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,561</t>
+          <t>0,478</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,582</t>
+          <t>0,532</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,978</t>
+          <t>0,989</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>41,000</t>
+          <t>69,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J13" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -1059,42 +1059,42 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,632</t>
+          <t>0,564</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,615</t>
+          <t>0,470</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,623</t>
+          <t>0,512</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,950</t>
+          <t>0,961</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>39,000</t>
+          <t>66,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>31</v>
+      </c>
+      <c r="I14" t="n">
         <v>24</v>
       </c>
-      <c r="I14" t="n">
-        <v>14</v>
-      </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,612</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,821</t>
+          <t>0,712</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,736</t>
+          <t>0,658</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>39,000</t>
+          <t>73,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I15" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16">
@@ -1151,42 +1151,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,453</t>
+          <t>0,489</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,706</t>
+          <t>0,688</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,552</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,983</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>34,000</t>
+          <t>64,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="I16" t="n">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
@@ -1197,27 +1197,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,451</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,697</t>
+          <t>0,686</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,548</t>
+          <t>0,519</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,979</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>33,000</t>
+          <t>51,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1226,13 +1226,13 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="I17" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
@@ -1243,42 +1243,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,519</t>
+          <t>0,425</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,436</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,549</t>
+          <t>0,430</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,959</t>
+          <t>0,963</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>24,000</t>
+          <t>39,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J18" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1289,42 +1289,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,512</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,720</t>
+          <t>0,538</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,655</t>
+          <t>0,525</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,850</t>
+          <t>0,770</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>25,000</t>
+          <t>39,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H19" t="n">
+        <v>21</v>
+      </c>
+      <c r="I19" t="n">
+        <v>20</v>
+      </c>
+      <c r="J19" t="n">
         <v>18</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1335,42 +1335,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,524</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,564</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,543</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,819</t>
+          <t>0,818</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>24,000</t>
+          <t>39,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I20" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -1381,27 +1381,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,524</t>
+          <t>0,405</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,524</t>
+          <t>0,548</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,524</t>
+          <t>0,466</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,845</t>
+          <t>0,942</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>21,000</t>
+          <t>31,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1410,13 +1410,13 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,857</t>
+          <t>0,583</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,375</t>
+          <t>0,304</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,522</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1456,13 +1456,13 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
@@ -1473,42 +1473,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,550</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,471</t>
+          <t>0,478</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,432</t>
+          <t>0,512</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,898</t>
+          <t>0,965</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
+        <v>9</v>
+      </c>
+      <c r="J23" t="n">
         <v>12</v>
-      </c>
-      <c r="J23" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1519,42 +1519,42 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,857</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,323</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,940</t>
+          <t>0,892</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H24" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
         <v>6</v>
       </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
       <c r="J24" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -1565,42 +1565,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,474</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,588</t>
+          <t>0,409</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,541</t>
+          <t>0,439</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,892</t>
+          <t>0,979</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>17,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
         <v>10</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,185</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,308</t>
+          <t>0,357</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,348</t>
+          <t>0,244</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1631,19 +1631,19 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I26" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="J26" t="n">
         <v>9</v>
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,579</t>
+          <t>0,640</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,524</t>
+          <t>0,727</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,550</t>
+          <t>0,681</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>21,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J27" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,297</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,688</t>
+          <t>0,348</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,415</t>
+          <t>0,314</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1723,7 +1723,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I28" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,136</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,115</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>22,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1795,17 +1795,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,321</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,417</t>
+          <t>0,562</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,435</t>
+          <t>0,409</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1815,19 +1815,19 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>16,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="J30" t="n">
         <v>7</v>
@@ -1841,27 +1841,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,188</t>
+          <t>0,111</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,062</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0,231</t>
+          <t>0,080</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,935</t>
+          <t>0,707</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>16,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1870,13 +1870,13 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,207</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,263</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,227</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1907,22 +1907,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I32" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -1979,17 +1979,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,438</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,417</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,476</t>
+          <t>0,467</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1999,19 +1999,19 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>12,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J34" t="n">
         <v>7</v>
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,357</t>
+          <t>0,591</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,867</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,417</t>
+          <t>0,703</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2054,13 +2054,13 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I35" t="n">
         <v>9</v>
       </c>
       <c r="J35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -2076,12 +2076,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,522</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2091,22 +2091,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,118</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,129</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2149,10 +2149,10 @@
         <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J37" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,300</t>
+          <t>0,087</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,429</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,353</t>
+          <t>0,121</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,462</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
@@ -2255,17 +2255,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,778</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,636</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,700</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2275,22 +2275,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I40" t="n">
         <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2301,17 +2301,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,714</t>
+          <t>0,923</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,774</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7,000</t>
+          <t>13,000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2347,39 +2347,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>4</v>
@@ -2393,17 +2393,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,632</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2444,17 +2444,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0,897</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2464,17 +2464,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2485,42 +2485,42 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,743</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2531,17 +2531,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,375</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,207</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2551,22 +2551,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2577,12 +2577,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,833</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,455</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>5</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2623,17 +2623,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,625</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>10,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2655,10 +2655,10 @@
         <v>5</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2669,42 +2669,42 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,931</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2715,27 +2715,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0,800</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,923</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2744,13 +2744,13 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -2776,27 +2776,27 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,230</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52">
@@ -2807,27 +2807,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2836,13 +2836,13 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2853,22 +2853,22 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,914</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2878,17 +2878,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54">
@@ -2919,12 +2919,12 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55">
@@ -2945,17 +2945,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,167</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H55" t="n">
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2996,27 +2996,27 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -3026,59 +3026,53 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Space closure loop mechanics</t>
+          <t>space closure loop mechanics</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3104,27 +3098,27 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
@@ -3155,12 +3149,12 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -3170,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
@@ -3196,12 +3190,12 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0,463</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3213,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -3242,27 +3236,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0,643</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -3298,7 +3292,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -3334,79 +3328,73 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
+        <v>6</v>
+      </c>
+      <c r="J63" t="n">
         <v>2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Patient ID.1</t>
+          <t>patient id.1</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -3437,12 +3425,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3452,59 +3440,53 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Anterior Bite Turbos</t>
+          <t>anterior bite turbos</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3535,12 +3517,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -3550,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68">
@@ -3576,12 +3558,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3593,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
         <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3607,27 +3589,27 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3636,13 +3618,13 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70">
@@ -3700,145 +3682,151 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Anterior Crossbite</t>
+          <t>anterior crossbite</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>debonded bracket/band</t>
+          <t>Debonded Bracket/Band</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>lower arch curve of spee</t>
+          <t>Lower Arch Curve of Spee</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3973,12 +3961,12 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -3988,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -4232,7 +4220,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -4306,22 +4294,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,398</t>
+          <t>0,361</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,739</t>
+          <t>0,759</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,575</t>
+          <t>0,547</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,952</t>
+          <t>0,953</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4377,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>146</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">

--- a/data/5_results/with_cot/result_with_cot_4.xlsx
+++ b/data/5_results/with_cot/result_with_cot_4.xlsx
@@ -507,42 +507,42 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,728</t>
+          <t>0,757</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,856</t>
+          <t>0,882</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,787</t>
+          <t>0,815</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,995</t>
+          <t>0,996</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>125,000</t>
+          <t>127,000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,60</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -553,42 +553,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0,796</t>
+          <t>0,735</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0,951</t>
+          <t>0,850</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0,867</t>
+          <t>0,788</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0,991</t>
+          <t>0,995</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>123,000</t>
+          <t>127,000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,60</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="I3" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -599,42 +599,42 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,745</t>
+          <t>0,755</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,885</t>
+          <t>0,847</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0,809</t>
+          <t>0,799</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0,996</t>
+          <t>0,954</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>122,000</t>
+          <t>131,000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I4" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -645,42 +645,42 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0,759</t>
+          <t>0,747</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,917</t>
+          <t>0,879</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0,830</t>
+          <t>0,807</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0,974</t>
+          <t>0,972</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>120,000</t>
+          <t>124,000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -691,42 +691,42 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0,461</t>
+          <t>0,514</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,493</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0,458</t>
+          <t>0,504</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0,995</t>
+          <t>0,981</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>143,000</t>
+          <t>144,000</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="I6" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J6" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7">
@@ -737,17 +737,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0,464</t>
+          <t>0,551</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0,464</t>
+          <t>0,551</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0,464</t>
+          <t>0,551</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -757,22 +757,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>140,000</t>
+          <t>138,000</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I7" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -783,39 +783,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,174</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0,212</t>
+          <t>0,268</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0,206</t>
+          <t>0,211</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0,982</t>
+          <t>0,980</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>66,000</t>
+          <t>71,000</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I8" t="n">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="J8" t="n">
         <v>52</v>
@@ -829,42 +829,42 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0,485</t>
+          <t>0,380</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0,676</t>
+          <t>0,603</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0,565</t>
+          <t>0,466</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,813</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>71,000</t>
+          <t>63,000</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="I9" t="n">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="J9" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -875,42 +875,42 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0,556</t>
+          <t>0,424</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0,758</t>
+          <t>0,735</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0,641</t>
+          <t>0,537</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0,991</t>
+          <t>0,971</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>66,000</t>
+          <t>49,000</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0,30</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="J10" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -921,27 +921,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0,559</t>
+          <t>0,621</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0,508</t>
+          <t>0,571</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0,532</t>
+          <t>0,595</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0,997</t>
+          <t>0,989</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>65,000</t>
+          <t>63,000</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I11" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J11" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -967,22 +967,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0,525</t>
+          <t>0,596</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0,492</t>
+          <t>0,540</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,508</t>
+          <t>0,567</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0,965</t>
+          <t>0,995</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -992,17 +992,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,30</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I12" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="J12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -1013,42 +1013,42 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,648</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,478</t>
+          <t>0,538</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,532</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0,989</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>69,000</t>
+          <t>65,000</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J13" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -1059,27 +1059,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0,564</t>
+          <t>0,648</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0,470</t>
+          <t>0,547</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0,512</t>
+          <t>0,593</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0,961</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>66,000</t>
+          <t>64,000</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1088,13 +1088,13 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I14" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="J14" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15">
@@ -1105,17 +1105,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,612</t>
+          <t>0,541</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0,712</t>
+          <t>0,678</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0,658</t>
+          <t>0,602</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1125,22 +1125,22 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>73,000</t>
+          <t>59,000</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
@@ -1151,42 +1151,42 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0,489</t>
+          <t>0,494</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0,688</t>
+          <t>0,764</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0,571</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0,983</t>
+          <t>0,966</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>64,000</t>
+          <t>55,000</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I16" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J16" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
@@ -1197,42 +1197,42 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0,417</t>
+          <t>0,561</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0,686</t>
+          <t>0,793</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0,519</t>
+          <t>0,657</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0,979</t>
+          <t>0,919</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>51,000</t>
+          <t>58,000</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I17" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="J17" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
@@ -1243,42 +1243,42 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0,425</t>
+          <t>0,391</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0,436</t>
+          <t>0,316</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0,430</t>
+          <t>0,350</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0,963</t>
+          <t>0,967</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>39,000</t>
+          <t>57,000</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J18" t="n">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
@@ -1289,42 +1289,42 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0,512</t>
+          <t>0,474</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0,538</t>
+          <t>0,514</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0,525</t>
+          <t>0,493</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0,770</t>
+          <t>0,870</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>39,000</t>
+          <t>35,000</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I19" t="n">
         <v>20</v>
       </c>
       <c r="J19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
@@ -1335,42 +1335,42 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0,524</t>
+          <t>0,641</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0,564</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0,543</t>
+          <t>0,633</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0,818</t>
+          <t>0,820</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>39,000</t>
+          <t>40,000</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I20" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -1381,42 +1381,42 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0,405</t>
+          <t>0,370</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0,548</t>
+          <t>0,415</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0,466</t>
+          <t>0,391</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0,942</t>
+          <t>0,963</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>31,000</t>
+          <t>41,000</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="H21" t="n">
         <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J21" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -1427,17 +1427,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0,583</t>
+          <t>0,357</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0,304</t>
+          <t>0,294</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,323</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1447,22 +1447,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>23,000</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J22" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -1473,42 +1473,42 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0,550</t>
+          <t>0,611</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0,478</t>
+          <t>0,579</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0,512</t>
+          <t>0,595</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>0,965</t>
+          <t>0,988</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>23,000</t>
+          <t>38,000</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I23" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
@@ -1519,27 +1519,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,105</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0,323</t>
+          <t>0,138</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0,892</t>
+          <t>0,874</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>20,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1548,13 +1548,13 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
@@ -1565,42 +1565,42 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0,474</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0,409</t>
+          <t>0,564</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0,439</t>
+          <t>0,611</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0,979</t>
+          <t>0,965</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>22,000</t>
+          <t>39,000</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
@@ -1611,17 +1611,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0,185</t>
+          <t>0,067</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0,357</t>
+          <t>0,042</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0,244</t>
+          <t>0,051</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1631,22 +1631,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1657,17 +1657,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0,640</t>
+          <t>0,565</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0,727</t>
+          <t>0,565</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0,681</t>
+          <t>0,565</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1677,22 +1677,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>22,000</t>
+          <t>23,000</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,239</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0,348</t>
+          <t>0,423</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0,314</t>
+          <t>0,306</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1723,19 +1723,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>23,000</t>
+          <t>26,000</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I28" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J28" t="n">
         <v>15</v>
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0,100</t>
+          <t>0,158</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0,136</t>
+          <t>0,429</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0,115</t>
+          <t>0,231</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1769,22 +1769,22 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>22,000</t>
+          <t>14,000</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0,10</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J29" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1795,42 +1795,42 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0,321</t>
+          <t>0,083</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0,562</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0,409</t>
+          <t>0,148</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,901</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1841,42 +1841,42 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0,111</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0,062</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0,080</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0,707</t>
+          <t>0,718</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>16,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J31" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1887,17 +1887,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,163</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0,263</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0,227</t>
+          <t>0,219</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1907,19 +1907,19 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>19,000</t>
+          <t>21,000</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,10</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J32" t="n">
         <v>14</v>
@@ -1938,12 +1938,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0,818</t>
+          <t>0,947</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1953,22 +1953,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>19,000</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1979,17 +1979,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0,438</t>
+          <t>0,611</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,550</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0,467</t>
+          <t>0,579</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1999,22 +1999,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>20,000</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H34" t="n">
+        <v>11</v>
+      </c>
+      <c r="I34" t="n">
         <v>7</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>9</v>
-      </c>
-      <c r="J34" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -2025,17 +2025,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0,591</t>
+          <t>0,588</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0,867</t>
+          <t>0,417</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0,703</t>
+          <t>0,488</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>24,000</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I35" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -2071,17 +2071,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0,750</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0,522</t>
+          <t>0,222</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2091,22 +2091,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>15,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2117,17 +2117,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0,118</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0,129</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>14,000</t>
+          <t>15,000</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>2</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>15</v>
-      </c>
-      <c r="J37" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="38">
@@ -2163,17 +2163,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0,087</t>
+          <t>0,200</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,091</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0,121</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>11,000</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39">
@@ -2209,17 +2209,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0,400</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0,545</t>
+          <t>0,556</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0,462</t>
+          <t>0,625</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2229,22 +2229,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2255,17 +2255,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0,778</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0,636</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0,700</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2275,19 +2275,19 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J40" t="n">
         <v>4</v>
@@ -2301,27 +2301,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0,923</t>
+          <t>0,917</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0,774</t>
+          <t>0,957</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,917</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>13,000</t>
+          <t>12,000</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2347,17 +2347,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0,333</t>
+          <t>0,083</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,125</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,100</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2367,22 +2367,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>8,000</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J42" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="43">
@@ -2393,17 +2393,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0,667</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0,600</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0,632</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I43" t="n">
         <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
@@ -2444,12 +2444,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,600</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,545</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2459,68 +2459,74 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>cross elastic</t>
+          <t>Cross Elastic</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0,743</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>7</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2531,27 +2537,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0,143</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0,375</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0,207</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>9,000</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2560,13 +2566,13 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47">
@@ -2582,12 +2588,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0,455</t>
+          <t>0,714</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0,588</t>
+          <t>0,769</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2597,12 +2603,12 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>11,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2612,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -2623,17 +2629,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>0,833</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>0,714</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0,500</t>
-        </is>
-      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0,588</t>
+          <t>0,769</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2643,22 +2649,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>5</v>
       </c>
       <c r="I48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
         <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="49">
@@ -2669,42 +2675,42 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>0,667</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>0,400</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0,222</t>
-        </is>
-      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0,286</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0,931</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H49" t="n">
         <v>2</v>
       </c>
       <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
         <v>3</v>
-      </c>
-      <c r="J49" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="50">
@@ -2715,42 +2721,42 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,286</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0,222</t>
+          <t>0,400</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0,923</t>
+          <t>0,910</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
         <v>1</v>
       </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51">
@@ -2776,27 +2782,27 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0,230</t>
+          <t>0,446</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>9,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2812,37 +2818,37 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,800</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,667</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2853,42 +2859,42 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,500</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2914,27 +2920,27 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>8,000</t>
+          <t>2,000</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -2945,17 +2951,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0,167</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0,500</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0,250</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2965,7 +2971,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2974,13 +2980,13 @@
         </is>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>1</v>
       </c>
-      <c r="I55" t="n">
-        <v>5</v>
-      </c>
       <c r="J55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2991,42 +2997,42 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,333</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>0,143</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>0,200</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0,333</t>
-        </is>
-      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0,200</t>
+          <t>0,817</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3042,27 +3048,27 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,250</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,143</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>7,000</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3072,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58">
@@ -3103,22 +3109,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>5,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59">
@@ -3190,27 +3196,27 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>0,119</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -3241,7 +3247,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3253,56 +3259,62 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
         <v>0</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>closed spring</t>
+          <t>Closed Spring</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>3</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -3333,22 +3345,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3379,12 +3391,12 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>17,000</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,08</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -3394,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -3425,12 +3437,12 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2,000</t>
+          <t>1,000</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,00</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3440,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -3471,12 +3483,12 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>4,000</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3486,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67">
@@ -3517,12 +3529,12 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4,000</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -3532,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68">
@@ -3558,12 +3570,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3575,108 +3587,108 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>maxillary expander</t>
+          <t>Maxillary Expander</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>3,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LLHA</t>
+          <t>llha</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>6,000</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="71">
@@ -3707,74 +3719,68 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Debonded Bracket/Band</t>
+          <t>debonded bracket/band</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>5,000</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="73">
@@ -3832,53 +3838,47 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Intrusion Arch</t>
+          <t>intrusion arch</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0,000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>3,000</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -3936,47 +3936,53 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>lower arch accentuated curve of spee</t>
+          <t>Lower Arch Accentuated Curve of Spee</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
     <row r="77">
@@ -4190,47 +4196,53 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>arch coordination</t>
+          <t>Arch Coordination</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1,000</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0,00</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1</v>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -4294,22 +4306,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0,361</t>
+          <t>0,355</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0,759</t>
+          <t>0,753</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0,547</t>
+          <t>0,551</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0,953</t>
+          <t>0,935</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4389,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
